--- a/Excel Sample/Sample.xlsx
+++ b/Excel Sample/Sample.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20400" windowHeight="8250" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20400" windowHeight="8250"/>
   </bookViews>
   <sheets>
-    <sheet name="Heros" sheetId="1" r:id="rId1"/>
+    <sheet name="Heroes" sheetId="1" r:id="rId1"/>
     <sheet name="Weapons" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
